--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\ETZE_2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B12969-683B-46A3-9847-BDFD187091B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F40593EF-C10B-4E28-96F8-B812A089D715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NCAP_BND" sheetId="20" r:id="rId1"/>
+    <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
+    <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,6 +24,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,47 @@
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Update Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -81,145 +125,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+  <si>
+    <t>* Parameter values for qualifying technologies in each region, not tied to BASE</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>LimType</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Pset_Set</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Pset_PD</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>Cset_Set</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Cset_CD</t>
+  </si>
   <si>
     <t>~TFM_INS</t>
   </si>
   <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Pset_Set</t>
-  </si>
-  <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Pset_CI</t>
-  </si>
-  <si>
-    <t>Pset_CO</t>
-  </si>
-  <si>
-    <t>Cset_Set</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Cset_CD</t>
-  </si>
-  <si>
-    <t>Pset_PD</t>
-  </si>
-  <si>
-    <t>* Parameter values for qualifying technologies in each region, not tied to BASE</t>
-  </si>
-  <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
-    <t>REG1</t>
-  </si>
-  <si>
-    <t>REG2</t>
-  </si>
-  <si>
-    <t>NCAP_BND</t>
-  </si>
-  <si>
-    <t>ELCREHYD00</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>PSET_CI</t>
-  </si>
-  <si>
-    <t>*1.1</t>
-  </si>
-  <si>
-    <t>*.8</t>
-  </si>
-  <si>
-    <t>ELCCOA</t>
-  </si>
-  <si>
-    <t>STG_SIFT</t>
-  </si>
-  <si>
-    <t>CSET_CN</t>
-  </si>
-  <si>
-    <t>PSET_CO</t>
-  </si>
-  <si>
-    <t>INDELC</t>
-  </si>
-  <si>
-    <t>COM_AGG</t>
-  </si>
-  <si>
-    <t>???CO2,-TOTCO2</t>
-  </si>
-  <si>
-    <t>other_indexes</t>
-  </si>
-  <si>
-    <t>TOTCO2</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>Pset_set</t>
-  </si>
-  <si>
-    <t>ELEGAS</t>
+    <t>~TFM_FILL</t>
+  </si>
+  <si>
+    <t>Operation_Sum_Avg_Count</t>
+  </si>
+  <si>
+    <t>Scenario Name</t>
+  </si>
+  <si>
+    <t>Other_Indexes</t>
+  </si>
+  <si>
+    <t>Tech_Comm_Info</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -262,20 +240,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color indexed="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -299,13 +268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,34 +299,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,38 +312,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Migliaia_tab emissioni" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 9 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normale_B2020" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Percent 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Percent 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Percent 3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Percent 3 3" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Percent 3 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Percent 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Percent 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Percent 4 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Percent 4 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Percent 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Percent 6" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Percent 7" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Percent 8" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,338 +656,497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:P26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B3:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>12</v>
+    <row r="3" spans="2:15" ht="15">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="22.5" customHeight="1" thickBot="1">
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" ht="21" customHeight="1" thickBot="1">
+      <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>2005</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>2005</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>2006</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>2007</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>2008</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>2009</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>2010</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>2011</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O26" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="96cf5878-74d7-460f-a445-eb4c85d99a58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="833e474d-e424-4496-95f1-98e7780be11a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FCB31E966C8774491137362174F34D4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80b0e4a92f7da9a3cfe1b066d6726a7e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="96cf5878-74d7-460f-a445-eb4c85d99a58" xmlns:ns3="833e474d-e424-4496-95f1-98e7780be11a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85bb924e207d6ced958957fe824a9c16" ns2:_="" ns3:_="">
+    <xsd:import namespace="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <xsd:import namespace="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96cf5878-74d7-460f-a445-eb4c85d99a58" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="b7b31e59-74a4-4436-bc03-9931855e0d9a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="833e474d-e424-4496-95f1-98e7780be11a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cd527c49-3208-4c55-a151-d8f89dfb23f9}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="833e474d-e424-4496-95f1-98e7780be11a">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F820387F-4A48-42DF-B001-E1D30ECFC076}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE5E2199-B8F4-45BC-A2D0-6A30674F0F02}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C830273-0E35-4F33-BC3C-DE205414258E}"/>
 </file>